--- a/biology/Zoologie/Acétabulum/Acétabulum.xlsx
+++ b/biology/Zoologie/Acétabulum/Acétabulum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tabulum</t>
+          <t>Acétabulum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acétabulum (ou cotyle ou cavité cotyloïde selon l'ancienne Nomenclature anatomique[1],[2]) est la surface articulaire excavée de l'os coxal chez les tétrapodes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acétabulum (ou cotyle ou cavité cotyloïde selon l'ancienne Nomenclature anatomique,) est la surface articulaire excavée de l'os coxal chez les tétrapodes.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tabulum</t>
+          <t>Acétabulum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Anatomie humaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acétabulum est situé sur la face latérale de l'os coxal à la jonction de ses trois os constitutifs : l'ischium en arrière, l'ilium au-dessus et le pubis en avant.
 C'est une surface articulaire très excavée limité par un rebord saillant : le limbus de l'acétabulum.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tabulum</t>
+          <t>Acétabulum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Seuls les tétrapodes possèdent un bassin permettant la présence de l'acétabulum, même s'il a disparu chez certains phylums comme les cétacés. 
 Le groupe des Dinosaures se distingue notamment par un acétabulum perforé : c'est une apomorphie caractéristique de ce phylum.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tabulum</t>
+          <t>Acétabulum</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Aspect historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des cavités cotyloïdes de grands mammifères (bison, cheval) ont été façonnées afin de servir de bol ou de godet à partir du Paléolithique moyen (notamment à La Quina) et jusqu'au Néolithique (notamment au Fort Harrouard)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des cavités cotyloïdes de grands mammifères (bison, cheval) ont été façonnées afin de servir de bol ou de godet à partir du Paléolithique moyen (notamment à La Quina) et jusqu'au Néolithique (notamment au Fort Harrouard).
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tabulum</t>
+          <t>Acétabulum</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot acétabulum signifie littéralement "petite tasse de vinaigre". C'était le mot latin pour un petit récipient pour servir le vinaigre . Plus tard, le mot a également été utilisé comme unité de volume .
 </t>
